--- a/data/georgia_census/mcxeta-mtianeti/yazbegi/education_graduates.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/yazbegi/education_graduates.xlsx
@@ -1856,13 +1856,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C3C300D-9660-47DA-8B7D-AEB40F981C8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D1CBC5-BA11-41E6-8C1C-41ED13411F87}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C6DA27-12E9-43AF-AB27-74C166F20420}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E7AD99A-0267-400F-B48F-46AA469487E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E68E35A-6FC3-4CE6-AAB8-3B8DB6BC249F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8420A4-F963-4A0C-808F-7516883A2C33}"/>
 </file>